--- a/Excel/Dec3rd.xlsx
+++ b/Excel/Dec3rd.xlsx
@@ -1,32 +1,102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pat1s\source\repos\AdventOfCode2021\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9883FAD-FAA5-4D1F-89DB-25EEDA9F55C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>'00100</t>
+  </si>
+  <si>
+    <t>'11110</t>
+  </si>
+  <si>
+    <t>'10110</t>
+  </si>
+  <si>
+    <t>'10111</t>
+  </si>
+  <si>
+    <t>'10101</t>
+  </si>
+  <si>
+    <t>'01111</t>
+  </si>
+  <si>
+    <t>'00111</t>
+  </si>
+  <si>
+    <t>'11100</t>
+  </si>
+  <si>
+    <t>'10000</t>
+  </si>
+  <si>
+    <t>'11001</t>
+  </si>
+  <si>
+    <t>'00010</t>
+  </si>
+  <si>
+    <t>'01010</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Source Code Pro"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,11 +119,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +404,470 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="str">
+        <f>LEFT(RIGHT($C4,6-D$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:H4" si="0">LEFT(RIGHT($C4,6-E$3),1)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" ref="D5:H15" si="1">LEFT(RIGHT($C5,6-D$3),1)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f>COUNTIF(D4:D15, 1)</f>
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ref="E17:H17" si="2">COUNTIF(E4:E15, 1)</f>
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f>COUNTIF(D4:D15,0)</f>
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ref="E18:H18" si="3">COUNTIF(E4:E15,0)</f>
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <f>IF(D18&gt;D17,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:H20" si="4">IF(E18&gt;E17,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J20" t="str">
+        <f>D20&amp;E20&amp;F20&amp;G20&amp;H20</f>
+        <v>10110</v>
+      </c>
+      <c r="K20">
+        <f>BIN2DEC(J20)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f>IF(D18&gt;D17,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f>IF(E18&gt;E17,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f>IF(F18&gt;F17,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>IF(G18&gt;G17,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f>IF(H18&gt;H17,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J21" t="str">
+        <f>D21&amp;E21&amp;F21&amp;G21&amp;H21</f>
+        <v>01001</v>
+      </c>
+      <c r="K21">
+        <f>BIN2DEC(J21)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K22" s="2">
+        <f>K21*K20</f>
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>